--- a/ENSAIO.xlsx
+++ b/ENSAIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotin\Desktop\Bolt Tech\Bolt-Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62068F4B-8E47-40D7-BB58-CFF362B122B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEAD5B-F730-48A4-8CB4-01898E5541D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3FCBBB7F-1FC4-4430-B72E-3E374A0E91DE}"/>
   </bookViews>
@@ -17,14 +17,6 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$E$3:$E$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$F$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$F$3:$F$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$E$3:$E$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$F$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$F$3:$F$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2102,10 +2094,10 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22</c:v>
@@ -6195,7 +6187,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6434,7 +6426,7 @@
       </c>
       <c r="H6" s="15">
         <f>_xlfn.QUARTILE.EXC(F3:F13,3)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="6">
         <v>4</v>
@@ -6530,7 +6522,7 @@
       </c>
       <c r="H8" s="9">
         <f>MAX(F3:F13)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="6">
         <v>6</v>
@@ -6645,7 +6637,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="6">
         <v>9</v>
@@ -6679,7 +6671,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="6">
         <v>10</v>
